--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E2AE5-C09E-4E10-A878-C1E758C1EB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4352B9D2-30DD-4521-B14F-8F3C1F07C8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,29 +278,29 @@
     <t>mervinea@people.com.cn</t>
   </si>
   <si>
-    <t>tcraigkmlomyy@sitemeter.com</t>
-  </si>
-  <si>
-    <t>lomynew</t>
-  </si>
-  <si>
-    <t>lonew</t>
-  </si>
-  <si>
-    <t>tcraigkmledy@sitemeter.com</t>
-  </si>
-  <si>
-    <t>Vudia</t>
-  </si>
-  <si>
-    <t>Thddaute</t>
+    <t>medlkkmledy@sitemeter.com</t>
+  </si>
+  <si>
+    <t>Vasl</t>
+  </si>
+  <si>
+    <t>Thloli</t>
+  </si>
+  <si>
+    <t>aslnewuseriok@meter.com</t>
+  </si>
+  <si>
+    <t>lomyaslllm</t>
+  </si>
+  <si>
+    <t>asllmoj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,10 +388,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,8 +442,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -774,7 +785,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>22</v>
@@ -1146,14 +1157,14 @@
       <c r="B14" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>87</v>
+      <c r="C14" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>19</v>
@@ -1406,7 +1417,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{1B2B111C-186B-48E7-A44A-4F1FC870BB8E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>